--- a/기본폴더/파이널.xlsx
+++ b/기본폴더/파이널.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="9615" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="10980" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="사원정보" sheetId="1" r:id="rId4"/>
@@ -18,395 +18,407 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="125">
-  <x:si>
-    <x:t>task_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>task_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_rank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_pass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>receive_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_file</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="129">
+  <x:si>
+    <x:t>SYSDATE, 'YYYY-MM-DD HH24:MI:SS'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT employee_resident_num_fk FOREIGN KEY(resident_num) 
+REFERENCES manager(resident_num)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT commet_emp_id_fk FOREIGN KEY(emp_id) 
+REFERENCES employee(emp_id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT email_mail_num_fk FOREIGN KEY(mail_num) 
+REFERENCES email(mail_num)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT task_receive_id_fk FOREIGN KEY(receive_id) 
+REFERENCES employee(emp_id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT email_sender_id_fk FOREIGN KEY(sender_id) 
+REFERENCES employee(emp_id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT comment_board_num_fk FOREIGN KEY(board_num) 
+REFERENCES board(board_num)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT board_board_num_fk FOREIGN KEY(board_num) 
+REFERENCES board(board_num)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT board_emp_id_fk FOREIGN KEY(emp_id) 
+REFERENCES employee(emp_id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT task_directive_id_fk FOREIGN KEY(directive_id) 
+REFERENCES employee(emp_id)</x:t>
   </x:si>
   <x:si>
     <x:t>CONSTRAINT task_task_num_fk FOREIGN KEY(task_num) 
 REFERENCES personal_task(task_num)</x:t>
   </x:si>
   <x:si>
-    <x:t>010-0000-0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YYMMDD-1234567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>task_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recipient_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>personal_task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>resident_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(255)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT employee_resident_num_fk FOREIGN KEY(resident_num) 
-REFERENCES manager(resident_num)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>directive_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT commet_emp_id_fk FOREIGN KEY(emp_id) 
-REFERENCES employee(emp_id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT email_mail_num_fk FOREIGN KEY(mail_num) 
-REFERENCES email(mail_num)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Constraint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SYSDATE, 'YYYY-MM-DD HH24:MI:SS'</x:t>
-  </x:si>
-  <x:si>
     <x:t>CONSTRAINT email_recipient_id_fk FOREIGN KEY(recipient_id) 
 REFERENCES employee(emp_id)</x:t>
   </x:si>
   <x:si>
+    <x:t>comment_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>receive_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>resident_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file_originname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recipient_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YYMMDD-1234567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010-0000-0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>task_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>directive_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(255)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>personal_task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sender_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>task_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일
+열람 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_check</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sequence 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>task_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mail_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_pass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_rank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>task_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>upload_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Constraint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원정보(직원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>task_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자유, 공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>join_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원정보(관리자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>employee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emp_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약 조건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHECK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주민등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무 수행도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>원본 파일명</x:t>
   </x:si>
   <x:si>
-    <x:t>등록 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약 조건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무 수행도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주민등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emp_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHECK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
+    <x:t>받는 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보내는 사람</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근태관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무 지시일</x:t>
   </x:si>
   <x:si>
     <x:t>개인업무 파일</x:t>
   </x:si>
   <x:si>
+    <x:t>개인업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT '진행'
+IN('진행','완료')</x:t>
+  </x:si>
+  <x:si>
     <x:t>SYSDATE, 'YYYY-MM-DD'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인턴, 사원, 대리, 과장, 팀장, 임원</x:t>
   </x:si>
   <x:si>
     <x:t>DEFAULT 'N'
 IN('Y','N')</x:t>
   </x:si>
   <x:si>
-    <x:t>CONSTRAINT board_board_num_fk FOREIGN KEY(board_num) 
-REFERENCES board(board_num)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT comment_board_num_fk FOREIGN KEY(board_num) 
-REFERENCES board(board_num)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT task_receive_id_fk FOREIGN KEY(receive_id) 
-REFERENCES employee(emp_id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT email_sender_id_fk FOREIGN KEY(sender_id) 
-REFERENCES employee(emp_id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create_at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sequence 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일
-열람 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sender_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mail_check</x:t>
-  </x:si>
-  <x:si>
-    <x:t>task_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근태관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT board_emp_id_fk FOREIGN KEY(emp_id) 
-REFERENCES employee(emp_id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원정보(관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>employee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원정보(직원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>join_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT '진행'
-IN('진행','완료')</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file_originname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자유, 공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>task_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>받는 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무 지시일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보내는 사람</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT task_directive_id_fk FOREIGN KEY(directive_id) 
-REFERENCES employee(emp_id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인턴, 사원, 대리, 과장, 팀장, 임원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>upload_at</x:t>
+    <x:t>DEFAULT 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boardHis</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -943,6 +955,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1094,19 +1119,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1120,6 +1132,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:sz val="11"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1166,6 +1179,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:sz val="11"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1943,104 +1957,104 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C2" s="21"/>
-      <x:c r="D2" s="24" t="s">
+      <x:c r="B2" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C2" s="22"/>
+      <x:c r="D2" s="25" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E2" s="25"/>
+      <x:c r="F2" s="25"/>
+      <x:c r="G2" s="25"/>
+      <x:c r="H2" s="25"/>
+      <x:c r="I2" s="25"/>
+      <x:c r="J2" s="26"/>
+    </x:row>
+    <x:row r="3" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B3" s="23"/>
+      <x:c r="C3" s="24"/>
+      <x:c r="D3" s="27" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E3" s="27"/>
+      <x:c r="F3" s="27"/>
+      <x:c r="G3" s="27"/>
+      <x:c r="H3" s="27"/>
+      <x:c r="I3" s="27"/>
+      <x:c r="J3" s="28"/>
+    </x:row>
+    <x:row r="4" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B4" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C4" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G4" s="20"/>
+      <x:c r="H4" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I4" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J4" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="23"/>
+      <x:c r="C5" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D5" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E5" s="11" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="E2" s="24"/>
-      <x:c r="F2" s="24"/>
-      <x:c r="G2" s="24"/>
-      <x:c r="H2" s="24"/>
-      <x:c r="I2" s="24"/>
-      <x:c r="J2" s="25"/>
-    </x:row>
-    <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="22"/>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="26" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E3" s="26"/>
-      <x:c r="F3" s="26"/>
-      <x:c r="G3" s="26"/>
-      <x:c r="H3" s="26"/>
-      <x:c r="I3" s="26"/>
-      <x:c r="J3" s="27"/>
-    </x:row>
-    <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C4" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D4" s="19"/>
-      <x:c r="E4" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F4" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G4" s="19"/>
-      <x:c r="H4" s="28" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I4" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="22"/>
-      <x:c r="C5" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D5" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E5" s="11" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="F5" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G5" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="29"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H5" s="30"/>
       <x:c r="I5" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="23"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J5" s="24"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G6" s="9"/>
       <x:c r="H6" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="9"/>
       <x:c r="J6" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10" ht="20" customHeight="1">
@@ -2048,18 +2062,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E7" s="9" t="s">
-        <x:v>102</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
       <x:c r="G7" s="9"/>
       <x:c r="H7" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="9"/>
       <x:c r="J7" s="8"/>
@@ -2069,18 +2083,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="9"/>
       <x:c r="G8" s="9"/>
       <x:c r="H8" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I8" s="9"/>
       <x:c r="J8" s="8"/>
@@ -2098,22 +2112,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>70</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>66</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
       <x:c r="G9" s="9"/>
       <x:c r="H9" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I9" s="9"/>
       <x:c r="J9" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
@@ -2129,22 +2143,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F10" s="9"/>
       <x:c r="G10" s="9"/>
       <x:c r="H10" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I10" s="9"/>
       <x:c r="J10" s="8" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="K10" s="6"/>
       <x:c r="L10" s="6"/>
@@ -2163,121 +2177,121 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F11" s="9"/>
       <x:c r="G11" s="9"/>
       <x:c r="H11" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I11" s="9"/>
       <x:c r="J11" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="12" ht="20" customHeight="1"/>
     <x:row r="13" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B13" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C13" s="21"/>
-      <x:c r="D13" s="24" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E13" s="24"/>
-      <x:c r="F13" s="24"/>
-      <x:c r="G13" s="24"/>
-      <x:c r="H13" s="24"/>
-      <x:c r="I13" s="24"/>
-      <x:c r="J13" s="25"/>
+      <x:c r="B13" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C13" s="22"/>
+      <x:c r="D13" s="25" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E13" s="25"/>
+      <x:c r="F13" s="25"/>
+      <x:c r="G13" s="25"/>
+      <x:c r="H13" s="25"/>
+      <x:c r="I13" s="25"/>
+      <x:c r="J13" s="26"/>
     </x:row>
     <x:row r="14" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B14" s="22"/>
-      <x:c r="C14" s="23"/>
-      <x:c r="D14" s="26" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E14" s="26"/>
-      <x:c r="F14" s="26"/>
-      <x:c r="G14" s="26"/>
-      <x:c r="H14" s="26"/>
-      <x:c r="I14" s="26"/>
-      <x:c r="J14" s="27"/>
+      <x:c r="B14" s="23"/>
+      <x:c r="C14" s="24"/>
+      <x:c r="D14" s="27" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E14" s="27"/>
+      <x:c r="F14" s="27"/>
+      <x:c r="G14" s="27"/>
+      <x:c r="H14" s="27"/>
+      <x:c r="I14" s="27"/>
+      <x:c r="J14" s="28"/>
     </x:row>
     <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="20" t="s">
+      <x:c r="B15" s="21" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C15" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D15" s="19"/>
+      <x:c r="C15" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D15" s="20"/>
       <x:c r="E15" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F15" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G15" s="19"/>
-      <x:c r="H15" s="28" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F15" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G15" s="20"/>
+      <x:c r="H15" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I15" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J15" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B16" s="23"/>
+      <x:c r="C16" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D16" s="12" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I15" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J15" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="22"/>
-      <x:c r="C16" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D16" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E16" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F16" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G16" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H16" s="29"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H16" s="30"/>
       <x:c r="I16" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J16" s="23"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J16" s="24"/>
     </x:row>
     <x:row r="17" spans="2:10" ht="57" customHeight="1">
       <x:c r="B17" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D17" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E17" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F17" s="9"/>
       <x:c r="G17" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H17" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I17" s="9"/>
       <x:c r="J17" s="15" t="s">
-        <x:v>45</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:10" ht="20" customHeight="1">
@@ -2285,20 +2299,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C18" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D18" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E18" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F18" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G18" s="9"/>
       <x:c r="H18" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="8"/>
@@ -2308,18 +2322,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E19" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F19" s="9"/>
       <x:c r="G19" s="9"/>
       <x:c r="H19" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="9"/>
       <x:c r="J19" s="8"/>
@@ -2329,22 +2343,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D20" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F20" s="9"/>
       <x:c r="G20" s="9"/>
       <x:c r="H20" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I20" s="9"/>
       <x:c r="J20" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="21" ht="20" customHeight="1"/>
@@ -2509,104 +2523,104 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C2" s="21"/>
-      <x:c r="D2" s="24" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E2" s="24"/>
-      <x:c r="F2" s="24"/>
-      <x:c r="G2" s="24"/>
-      <x:c r="H2" s="24"/>
-      <x:c r="I2" s="24"/>
-      <x:c r="J2" s="25"/>
+      <x:c r="B2" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C2" s="22"/>
+      <x:c r="D2" s="25" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E2" s="25"/>
+      <x:c r="F2" s="25"/>
+      <x:c r="G2" s="25"/>
+      <x:c r="H2" s="25"/>
+      <x:c r="I2" s="25"/>
+      <x:c r="J2" s="26"/>
     </x:row>
     <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="22"/>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="26" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E3" s="26"/>
-      <x:c r="F3" s="26"/>
-      <x:c r="G3" s="26"/>
-      <x:c r="H3" s="26"/>
-      <x:c r="I3" s="26"/>
-      <x:c r="J3" s="27"/>
+      <x:c r="B3" s="23"/>
+      <x:c r="C3" s="24"/>
+      <x:c r="D3" s="27" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E3" s="27"/>
+      <x:c r="F3" s="27"/>
+      <x:c r="G3" s="27"/>
+      <x:c r="H3" s="27"/>
+      <x:c r="I3" s="27"/>
+      <x:c r="J3" s="28"/>
     </x:row>
     <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="20" t="s">
+      <x:c r="B4" s="21" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C4" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D4" s="19"/>
+      <x:c r="C4" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
       <x:c r="E4" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F4" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G4" s="19"/>
-      <x:c r="H4" s="28" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G4" s="20"/>
+      <x:c r="H4" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I4" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J4" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="23"/>
+      <x:c r="C5" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D5" s="12" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I4" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="22"/>
-      <x:c r="C5" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D5" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E5" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F5" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G5" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="29"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H5" s="30"/>
       <x:c r="I5" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="23"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J5" s="24"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G6" s="9"/>
       <x:c r="H6" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="9"/>
       <x:c r="J6" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10" ht="20" customHeight="1">
@@ -2614,18 +2628,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E7" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
       <x:c r="G7" s="9"/>
       <x:c r="H7" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="9"/>
       <x:c r="J7" s="8"/>
@@ -2635,13 +2649,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D8" s="8" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F8" s="9"/>
       <x:c r="G8" s="9"/>
@@ -2662,24 +2676,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>72</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
       <x:c r="G9" s="9"/>
       <x:c r="H9" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I9" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J9" s="17" t="s">
-        <x:v>79</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
@@ -2695,22 +2709,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="9"/>
       <x:c r="G10" s="9"/>
       <x:c r="H10" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I10" s="9"/>
       <x:c r="J10" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="6"/>
       <x:c r="L10" s="6"/>
@@ -2726,24 +2740,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F11" s="9"/>
       <x:c r="G11" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H11" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I11" s="9"/>
-      <x:c r="J11" s="30" t="s">
-        <x:v>57</x:v>
+      <x:c r="J11" s="18" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K11" s="6"/>
       <x:c r="L11" s="6"/>
@@ -2759,126 +2773,126 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D12" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="9"/>
       <x:c r="G12" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H12" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I12" s="9"/>
       <x:c r="J12" s="17" t="s">
-        <x:v>83</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="13" ht="20" customHeight="1"/>
     <x:row r="14" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B14" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C14" s="21"/>
-      <x:c r="D14" s="24" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E14" s="24"/>
-      <x:c r="F14" s="24"/>
-      <x:c r="G14" s="24"/>
-      <x:c r="H14" s="24"/>
-      <x:c r="I14" s="24"/>
-      <x:c r="J14" s="25"/>
+      <x:c r="B14" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C14" s="22"/>
+      <x:c r="D14" s="25" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E14" s="25"/>
+      <x:c r="F14" s="25"/>
+      <x:c r="G14" s="25"/>
+      <x:c r="H14" s="25"/>
+      <x:c r="I14" s="25"/>
+      <x:c r="J14" s="26"/>
     </x:row>
     <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="22"/>
-      <x:c r="C15" s="23"/>
-      <x:c r="D15" s="26" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E15" s="26"/>
-      <x:c r="F15" s="26"/>
-      <x:c r="G15" s="26"/>
-      <x:c r="H15" s="26"/>
-      <x:c r="I15" s="26"/>
-      <x:c r="J15" s="27"/>
+      <x:c r="B15" s="23"/>
+      <x:c r="C15" s="24"/>
+      <x:c r="D15" s="27" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E15" s="27"/>
+      <x:c r="F15" s="27"/>
+      <x:c r="G15" s="27"/>
+      <x:c r="H15" s="27"/>
+      <x:c r="I15" s="27"/>
+      <x:c r="J15" s="28"/>
     </x:row>
     <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="20" t="s">
+      <x:c r="B16" s="21" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C16" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D16" s="19"/>
+      <x:c r="C16" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D16" s="20"/>
       <x:c r="E16" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F16" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G16" s="19"/>
-      <x:c r="H16" s="28" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F16" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G16" s="20"/>
+      <x:c r="H16" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I16" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J16" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B17" s="23"/>
+      <x:c r="C17" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D17" s="12" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I16" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J16" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B17" s="22"/>
-      <x:c r="C17" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D17" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E17" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F17" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G17" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H17" s="29"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H17" s="30"/>
       <x:c r="I17" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J17" s="23"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J17" s="24"/>
     </x:row>
     <x:row r="18" spans="2:10" ht="45" customHeight="1">
       <x:c r="B18" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C18" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D18" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F18" s="9"/>
       <x:c r="G18" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H18" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I18" s="9"/>
-      <x:c r="J18" s="30" t="s">
-        <x:v>48</x:v>
+      <x:c r="J18" s="18" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:10" ht="20" customHeight="1">
@@ -2886,20 +2900,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E19" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F19" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G19" s="9"/>
       <x:c r="H19" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="9"/>
       <x:c r="J19" s="8"/>
@@ -2909,18 +2923,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D20" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E20" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F20" s="9"/>
       <x:c r="G20" s="9"/>
       <x:c r="H20" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I20" s="9"/>
       <x:c r="J20" s="8"/>
@@ -2930,22 +2944,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D21" s="8" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E21" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F21" s="9"/>
       <x:c r="G21" s="9"/>
       <x:c r="H21" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I21" s="9"/>
       <x:c r="J21" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22" ht="20" customHeight="1"/>
@@ -3087,10 +3101,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="B2:R30"/>
+  <x:dimension ref="B2:R31"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D14" activeCellId="0" sqref="D14:J14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3109,104 +3123,104 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C2" s="21"/>
-      <x:c r="D2" s="24" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E2" s="24"/>
-      <x:c r="F2" s="24"/>
-      <x:c r="G2" s="24"/>
-      <x:c r="H2" s="24"/>
-      <x:c r="I2" s="24"/>
-      <x:c r="J2" s="25"/>
+      <x:c r="B2" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C2" s="22"/>
+      <x:c r="D2" s="25" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E2" s="25"/>
+      <x:c r="F2" s="25"/>
+      <x:c r="G2" s="25"/>
+      <x:c r="H2" s="25"/>
+      <x:c r="I2" s="25"/>
+      <x:c r="J2" s="26"/>
     </x:row>
     <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="22"/>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="26" t="s">
+      <x:c r="B3" s="23"/>
+      <x:c r="C3" s="24"/>
+      <x:c r="D3" s="27" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E3" s="27"/>
+      <x:c r="F3" s="27"/>
+      <x:c r="G3" s="27"/>
+      <x:c r="H3" s="27"/>
+      <x:c r="I3" s="27"/>
+      <x:c r="J3" s="28"/>
+    </x:row>
+    <x:row r="4" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B4" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C4" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G4" s="20"/>
+      <x:c r="H4" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I4" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J4" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="23"/>
+      <x:c r="C5" s="11" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E3" s="26"/>
-      <x:c r="F3" s="26"/>
-      <x:c r="G3" s="26"/>
-      <x:c r="H3" s="26"/>
-      <x:c r="I3" s="26"/>
-      <x:c r="J3" s="27"/>
-    </x:row>
-    <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C4" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D4" s="19"/>
-      <x:c r="E4" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F4" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G4" s="19"/>
-      <x:c r="H4" s="28" t="s">
+      <x:c r="D5" s="12" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I4" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="22"/>
-      <x:c r="C5" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D5" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E5" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F5" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G5" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="29"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H5" s="30"/>
       <x:c r="I5" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="23"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J5" s="24"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G6" s="9"/>
       <x:c r="H6" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="9"/>
       <x:c r="J6" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10" ht="20" customHeight="1">
@@ -3214,18 +3228,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
       <x:c r="G7" s="9"/>
       <x:c r="H7" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="9"/>
       <x:c r="J7" s="8"/>
@@ -3235,17 +3249,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F8" s="9"/>
       <x:c r="G8" s="9"/>
-      <x:c r="H8" s="9"/>
+      <x:c r="H8" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="I8" s="9"/>
       <x:c r="J8" s="8"/>
       <x:c r="K8" s="6"/>
@@ -3262,22 +3278,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
       <x:c r="G9" s="9"/>
       <x:c r="H9" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I9" s="9"/>
       <x:c r="J9" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
@@ -3293,24 +3309,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F10" s="9"/>
       <x:c r="G10" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H10" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I10" s="9"/>
       <x:c r="J10" s="17" t="s">
-        <x:v>100</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K10" s="6"/>
       <x:c r="L10" s="6"/>
@@ -3321,391 +3337,419 @@
       <x:c r="Q10" s="6"/>
       <x:c r="R10" s="6"/>
     </x:row>
-    <x:row r="11" spans="2:10" ht="20.25" customHeight="1">
+    <x:row r="11" spans="2:18" s="5" customFormat="1" ht="45" customHeight="1">
       <x:c r="B11" s="7">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F11" s="9"/>
       <x:c r="G11" s="9"/>
       <x:c r="H11" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I11" s="9"/>
-      <x:c r="J11" s="17" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" ht="20" customHeight="1"/>
-    <x:row r="13" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B13" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C13" s="21"/>
-      <x:c r="D13" s="24" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E13" s="24"/>
-      <x:c r="F13" s="24"/>
-      <x:c r="G13" s="24"/>
-      <x:c r="H13" s="24"/>
-      <x:c r="I13" s="24"/>
-      <x:c r="J13" s="25"/>
-    </x:row>
+      <x:c r="J11" s="15" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="K11" s="6"/>
+      <x:c r="L11" s="6"/>
+      <x:c r="M11" s="6"/>
+      <x:c r="N11" s="6"/>
+      <x:c r="O11" s="6"/>
+      <x:c r="P11" s="6"/>
+      <x:c r="Q11" s="6"/>
+      <x:c r="R11" s="6"/>
+    </x:row>
+    <x:row r="12" spans="2:10" ht="20.25" customHeight="1">
+      <x:c r="B12" s="7">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E12" s="9" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F12" s="9"/>
+      <x:c r="G12" s="9"/>
+      <x:c r="H12" s="9"/>
+      <x:c r="I12" s="9"/>
+      <x:c r="J12" s="17" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" ht="20" customHeight="1"/>
     <x:row r="14" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B14" s="22"/>
-      <x:c r="C14" s="23"/>
-      <x:c r="D14" s="26" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E14" s="26"/>
-      <x:c r="F14" s="26"/>
-      <x:c r="G14" s="26"/>
-      <x:c r="H14" s="26"/>
-      <x:c r="I14" s="26"/>
-      <x:c r="J14" s="27"/>
+      <x:c r="B14" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C14" s="22"/>
+      <x:c r="D14" s="25" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E14" s="25"/>
+      <x:c r="F14" s="25"/>
+      <x:c r="G14" s="25"/>
+      <x:c r="H14" s="25"/>
+      <x:c r="I14" s="25"/>
+      <x:c r="J14" s="26"/>
     </x:row>
     <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="20" t="s">
+      <x:c r="B15" s="23"/>
+      <x:c r="C15" s="24"/>
+      <x:c r="D15" s="27" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E15" s="27"/>
+      <x:c r="F15" s="27"/>
+      <x:c r="G15" s="27"/>
+      <x:c r="H15" s="27"/>
+      <x:c r="I15" s="27"/>
+      <x:c r="J15" s="28"/>
+    </x:row>
+    <x:row r="16" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B16" s="21" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C15" s="18" t="s">
+      <x:c r="C16" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D16" s="20"/>
+      <x:c r="E16" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F16" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G16" s="20"/>
+      <x:c r="H16" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I16" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J16" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B17" s="23"/>
+      <x:c r="C17" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D17" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E17" s="11" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F17" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G17" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H17" s="30"/>
+      <x:c r="I17" s="11" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J17" s="24"/>
+    </x:row>
+    <x:row r="18" spans="2:10" ht="45" customHeight="1">
+      <x:c r="B18" s="7">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="9" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D18" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E18" s="9" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F18" s="9"/>
+      <x:c r="G18" s="13" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D15" s="19"/>
-      <x:c r="E15" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F15" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G15" s="19"/>
-      <x:c r="H15" s="28" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I15" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J15" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="22"/>
-      <x:c r="C16" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D16" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E16" s="11" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F16" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G16" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H16" s="29"/>
-      <x:c r="I16" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J16" s="23"/>
-    </x:row>
-    <x:row r="17" spans="2:10" ht="45" customHeight="1">
-      <x:c r="B17" s="7">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C17" s="9" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D17" s="8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E17" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F17" s="9"/>
-      <x:c r="G17" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H17" s="9" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I17" s="9"/>
-      <x:c r="J17" s="15" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B18" s="7">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C18" s="9" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D18" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E18" s="9"/>
-      <x:c r="F18" s="14" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G18" s="9"/>
       <x:c r="H18" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I18" s="9"/>
-      <x:c r="J18" s="8" t="s">
-        <x:v>85</x:v>
+      <x:c r="J18" s="15" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:10" ht="20" customHeight="1">
       <x:c r="B19" s="7">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E19" s="9" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F19" s="9"/>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E19" s="9"/>
+      <x:c r="F19" s="14" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="G19" s="9"/>
-      <x:c r="H19" s="9"/>
+      <x:c r="H19" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="I19" s="9"/>
-      <x:c r="J19" s="8"/>
+      <x:c r="J19" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="2:10" ht="20" customHeight="1">
       <x:c r="B20" s="7">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D20" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F20" s="9"/>
       <x:c r="G20" s="9"/>
-      <x:c r="H20" s="9" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="H20" s="9"/>
       <x:c r="I20" s="9"/>
-      <x:c r="J20" s="8" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="2:10" ht="45" customHeight="1">
+      <x:c r="J20" s="8"/>
+    </x:row>
+    <x:row r="21" spans="2:10" ht="20" customHeight="1">
       <x:c r="B21" s="7">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C21" s="9" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D21" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E21" s="9" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F21" s="9"/>
+      <x:c r="G21" s="9"/>
+      <x:c r="H21" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I21" s="9"/>
+      <x:c r="J21" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:10" ht="45" customHeight="1">
+      <x:c r="B22" s="7">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C21" s="9" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D21" s="8" t="s">
+      <x:c r="C22" s="9" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D22" s="8" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E22" s="9" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F22" s="9"/>
+      <x:c r="G22" s="13" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H22" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I22" s="9"/>
+      <x:c r="J22" s="15" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" ht="20" customHeight="1"/>
+    <x:row r="24" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B24" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C24" s="22"/>
+      <x:c r="D24" s="25" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E24" s="25"/>
+      <x:c r="F24" s="25"/>
+      <x:c r="G24" s="25"/>
+      <x:c r="H24" s="25"/>
+      <x:c r="I24" s="25"/>
+      <x:c r="J24" s="26"/>
+    </x:row>
+    <x:row r="25" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B25" s="23"/>
+      <x:c r="C25" s="24"/>
+      <x:c r="D25" s="27" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E25" s="27"/>
+      <x:c r="F25" s="27"/>
+      <x:c r="G25" s="27"/>
+      <x:c r="H25" s="27"/>
+      <x:c r="I25" s="27"/>
+      <x:c r="J25" s="28"/>
+    </x:row>
+    <x:row r="26" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B26" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C26" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D26" s="20"/>
+      <x:c r="E26" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F26" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G26" s="20"/>
+      <x:c r="H26" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I26" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J26" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B27" s="23"/>
+      <x:c r="C27" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D27" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E27" s="11" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F27" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G27" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H27" s="30"/>
+      <x:c r="I27" s="11" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J27" s="24"/>
+    </x:row>
+    <x:row r="28" spans="2:10" ht="45" customHeight="1">
+      <x:c r="B28" s="7">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C28" s="9" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="E21" s="9" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F21" s="9"/>
-      <x:c r="G21" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="9" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I21" s="9"/>
-      <x:c r="J21" s="15" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" ht="20" customHeight="1"/>
-    <x:row r="23" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B23" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C23" s="21"/>
-      <x:c r="D23" s="24" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E23" s="24"/>
-      <x:c r="F23" s="24"/>
-      <x:c r="G23" s="24"/>
-      <x:c r="H23" s="24"/>
-      <x:c r="I23" s="24"/>
-      <x:c r="J23" s="25"/>
-    </x:row>
-    <x:row r="24" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B24" s="22"/>
-      <x:c r="C24" s="23"/>
-      <x:c r="D24" s="26" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E24" s="26"/>
-      <x:c r="F24" s="26"/>
-      <x:c r="G24" s="26"/>
-      <x:c r="H24" s="26"/>
-      <x:c r="I24" s="26"/>
-      <x:c r="J24" s="27"/>
-    </x:row>
-    <x:row r="25" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B25" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C25" s="18" t="s">
+      <x:c r="D28" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E28" s="9" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F28" s="9"/>
+      <x:c r="G28" s="13" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D25" s="19"/>
-      <x:c r="E25" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F25" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G25" s="19"/>
-      <x:c r="H25" s="28" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I25" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J25" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B26" s="22"/>
-      <x:c r="C26" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D26" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E26" s="11" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F26" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G26" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H26" s="29"/>
-      <x:c r="I26" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J26" s="23"/>
-    </x:row>
-    <x:row r="27" spans="2:10" ht="45" customHeight="1">
-      <x:c r="B27" s="7">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C27" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D27" s="8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E27" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F27" s="9"/>
-      <x:c r="G27" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H27" s="9" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I27" s="9"/>
-      <x:c r="J27" s="30" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B28" s="7">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C28" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D28" s="8" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E28" s="9" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F28" s="14" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G28" s="9"/>
       <x:c r="H28" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I28" s="9"/>
-      <x:c r="J28" s="8"/>
+      <x:c r="J28" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="2:10" ht="20" customHeight="1">
       <x:c r="B29" s="7">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C29" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D29" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E29" s="9" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F29" s="9"/>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F29" s="14" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="G29" s="9"/>
       <x:c r="H29" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I29" s="9"/>
       <x:c r="J29" s="8"/>
     </x:row>
     <x:row r="30" spans="2:10" ht="20" customHeight="1">
       <x:c r="B30" s="7">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C30" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D30" s="8" t="s">
-        <x:v>124</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F30" s="9"/>
       <x:c r="G30" s="9"/>
       <x:c r="H30" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I30" s="9"/>
-      <x:c r="J30" s="8" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" ht="20" customHeight="1"/>
+      <x:c r="J30" s="8"/>
+    </x:row>
+    <x:row r="31" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B31" s="7">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C31" s="9" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D31" s="8" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E31" s="9" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F31" s="9"/>
+      <x:c r="G31" s="9"/>
+      <x:c r="H31" s="9" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I31" s="9"/>
+      <x:c r="J31" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
     <x:row r="32" ht="20" customHeight="1"/>
     <x:row r="33" ht="20" customHeight="1"/>
     <x:row r="34" ht="20" customHeight="1"/>
@@ -3766,6 +3810,7 @@
     <x:row r="89" ht="20" customHeight="1"/>
     <x:row r="90" ht="20" customHeight="1"/>
     <x:row r="91" ht="20" customHeight="1"/>
+    <x:row r="92" ht="20" customHeight="1"/>
   </x:sheetData>
   <x:mergeCells count="24">
     <x:mergeCell ref="C4:D4"/>
@@ -3776,24 +3821,48 @@
     <x:mergeCell ref="D3:J3"/>
     <x:mergeCell ref="F4:G4"/>
     <x:mergeCell ref="H4:H5"/>
-    <x:mergeCell ref="C15:D15"/>
-    <x:mergeCell ref="B13:C14"/>
-    <x:mergeCell ref="B15:B16"/>
-    <x:mergeCell ref="J15:J16"/>
-    <x:mergeCell ref="D13:J13"/>
+    <x:mergeCell ref="C16:D16"/>
+    <x:mergeCell ref="B14:C15"/>
+    <x:mergeCell ref="B16:B17"/>
+    <x:mergeCell ref="J16:J17"/>
     <x:mergeCell ref="D14:J14"/>
-    <x:mergeCell ref="F15:G15"/>
-    <x:mergeCell ref="H15:H16"/>
-    <x:mergeCell ref="C25:D25"/>
-    <x:mergeCell ref="B23:C24"/>
-    <x:mergeCell ref="B25:B26"/>
-    <x:mergeCell ref="J25:J26"/>
-    <x:mergeCell ref="D23:J23"/>
+    <x:mergeCell ref="D15:J15"/>
+    <x:mergeCell ref="F16:G16"/>
+    <x:mergeCell ref="H16:H17"/>
+    <x:mergeCell ref="C26:D26"/>
+    <x:mergeCell ref="B24:C25"/>
+    <x:mergeCell ref="B26:B27"/>
+    <x:mergeCell ref="J26:J27"/>
     <x:mergeCell ref="D24:J24"/>
-    <x:mergeCell ref="F25:G25"/>
-    <x:mergeCell ref="H25:H26"/>
+    <x:mergeCell ref="D25:J25"/>
+    <x:mergeCell ref="F26:G26"/>
+    <x:mergeCell ref="H26:H27"/>
   </x:mergeCells>
   <x:conditionalFormatting sqref="H2:H2">
+    <x:cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <x:formula>"="</x:formula>
+    </x:cfRule>
+    <x:cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+      <x:formula>"="</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
+  <x:conditionalFormatting sqref="H1:H1 H3:H4 H6:H10 H12:H13 H23:H23 H32:H1048559">
+    <x:cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <x:formula>"="</x:formula>
+    </x:cfRule>
+    <x:cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+      <x:formula>"="</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
+  <x:conditionalFormatting sqref="H14:H14">
+    <x:cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <x:formula>"="</x:formula>
+    </x:cfRule>
+    <x:cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <x:formula>"="</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
+  <x:conditionalFormatting sqref="H15:H16 H18:H22">
     <x:cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <x:formula>"="</x:formula>
     </x:cfRule>
@@ -3801,15 +3870,15 @@
       <x:formula>"="</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H1:H1 H3:H4 H6:H12 H22:H22 H31:H1048558">
-    <x:cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+  <x:conditionalFormatting sqref="H24:H24">
+    <x:cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <x:formula>"="</x:formula>
     </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <x:cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <x:formula>"="</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H13:H13">
+  <x:conditionalFormatting sqref="H25:H26 H28:H29">
     <x:cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <x:formula>"="</x:formula>
     </x:cfRule>
@@ -3817,15 +3886,7 @@
       <x:formula>"="</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H14:H15 H17:H21">
-    <x:cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
-      <x:formula>"="</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <x:formula>"="</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H23:H23">
+  <x:conditionalFormatting sqref="H30:H31">
     <x:cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <x:formula>"="</x:formula>
     </x:cfRule>
@@ -3833,15 +3894,7 @@
       <x:formula>"="</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H24:H25 H27:H28">
-    <x:cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <x:formula>"="</x:formula>
-    </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <x:formula>"="</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="H29:H30">
+  <x:conditionalFormatting sqref="H11:H11">
     <x:cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <x:formula>"="</x:formula>
     </x:cfRule>
@@ -3880,104 +3933,104 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C2" s="21"/>
-      <x:c r="D2" s="24" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E2" s="24"/>
-      <x:c r="F2" s="24"/>
-      <x:c r="G2" s="24"/>
-      <x:c r="H2" s="24"/>
-      <x:c r="I2" s="24"/>
-      <x:c r="J2" s="25"/>
+      <x:c r="B2" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C2" s="22"/>
+      <x:c r="D2" s="25" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E2" s="25"/>
+      <x:c r="F2" s="25"/>
+      <x:c r="G2" s="25"/>
+      <x:c r="H2" s="25"/>
+      <x:c r="I2" s="25"/>
+      <x:c r="J2" s="26"/>
     </x:row>
     <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="22"/>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="26" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E3" s="26"/>
-      <x:c r="F3" s="26"/>
-      <x:c r="G3" s="26"/>
-      <x:c r="H3" s="26"/>
-      <x:c r="I3" s="26"/>
-      <x:c r="J3" s="27"/>
+      <x:c r="B3" s="23"/>
+      <x:c r="C3" s="24"/>
+      <x:c r="D3" s="27" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E3" s="27"/>
+      <x:c r="F3" s="27"/>
+      <x:c r="G3" s="27"/>
+      <x:c r="H3" s="27"/>
+      <x:c r="I3" s="27"/>
+      <x:c r="J3" s="28"/>
     </x:row>
     <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="20" t="s">
+      <x:c r="B4" s="21" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C4" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D4" s="19"/>
+      <x:c r="C4" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
       <x:c r="E4" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F4" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G4" s="19"/>
-      <x:c r="H4" s="28" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G4" s="20"/>
+      <x:c r="H4" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I4" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J4" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="23"/>
+      <x:c r="C5" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D5" s="12" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I4" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="22"/>
-      <x:c r="C5" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D5" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E5" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F5" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G5" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="29"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H5" s="30"/>
       <x:c r="I5" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="23"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J5" s="24"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G6" s="9"/>
       <x:c r="H6" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I6" s="9"/>
       <x:c r="J6" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10" ht="20" customHeight="1">
@@ -3985,18 +4038,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E7" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
       <x:c r="G7" s="9"/>
       <x:c r="H7" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="9"/>
       <x:c r="J7" s="8"/>
@@ -4006,13 +4059,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F8" s="9"/>
       <x:c r="G8" s="9"/>
@@ -4033,24 +4086,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E9" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
       <x:c r="G9" s="9"/>
       <x:c r="H9" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I9" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J9" s="15" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
@@ -4066,22 +4119,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="9"/>
       <x:c r="G10" s="9"/>
       <x:c r="H10" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I10" s="9"/>
       <x:c r="J10" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="6"/>
       <x:c r="L10" s="6"/>
@@ -4097,24 +4150,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F11" s="9"/>
       <x:c r="G11" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H11" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I11" s="9"/>
       <x:c r="J11" s="17" t="s">
-        <x:v>82</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K11" s="6"/>
       <x:c r="L11" s="6"/>
@@ -4130,126 +4183,126 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D12" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E12" s="9" t="s">
-        <x:v>98</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F12" s="9"/>
       <x:c r="G12" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H12" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I12" s="9"/>
       <x:c r="J12" s="17" t="s">
-        <x:v>122</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" ht="20" customHeight="1"/>
     <x:row r="14" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B14" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C14" s="21"/>
-      <x:c r="D14" s="24" t="s">
+      <x:c r="B14" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C14" s="22"/>
+      <x:c r="D14" s="25" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E14" s="25"/>
+      <x:c r="F14" s="25"/>
+      <x:c r="G14" s="25"/>
+      <x:c r="H14" s="25"/>
+      <x:c r="I14" s="25"/>
+      <x:c r="J14" s="26"/>
+    </x:row>
+    <x:row r="15" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B15" s="23"/>
+      <x:c r="C15" s="24"/>
+      <x:c r="D15" s="27" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E15" s="27"/>
+      <x:c r="F15" s="27"/>
+      <x:c r="G15" s="27"/>
+      <x:c r="H15" s="27"/>
+      <x:c r="I15" s="27"/>
+      <x:c r="J15" s="28"/>
+    </x:row>
+    <x:row r="16" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B16" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C16" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D16" s="20"/>
+      <x:c r="E16" s="10" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E14" s="24"/>
-      <x:c r="F14" s="24"/>
-      <x:c r="G14" s="24"/>
-      <x:c r="H14" s="24"/>
-      <x:c r="I14" s="24"/>
-      <x:c r="J14" s="25"/>
-    </x:row>
-    <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="22"/>
-      <x:c r="C15" s="23"/>
-      <x:c r="D15" s="26" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E15" s="26"/>
-      <x:c r="F15" s="26"/>
-      <x:c r="G15" s="26"/>
-      <x:c r="H15" s="26"/>
-      <x:c r="I15" s="26"/>
-      <x:c r="J15" s="27"/>
-    </x:row>
-    <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C16" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D16" s="19"/>
-      <x:c r="E16" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F16" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G16" s="19"/>
-      <x:c r="H16" s="28" t="s">
+      <x:c r="F16" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G16" s="20"/>
+      <x:c r="H16" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I16" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J16" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B17" s="23"/>
+      <x:c r="C17" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D17" s="12" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I16" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J16" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B17" s="22"/>
-      <x:c r="C17" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D17" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E17" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F17" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G17" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H17" s="29"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H17" s="30"/>
       <x:c r="I17" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J17" s="23"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="J17" s="24"/>
     </x:row>
     <x:row r="18" spans="2:10" ht="45" customHeight="1">
       <x:c r="B18" s="7">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C18" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D18" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E18" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F18" s="9"/>
       <x:c r="G18" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H18" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="15" t="s">
-        <x:v>31</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:10" ht="20" customHeight="1">
@@ -4257,20 +4310,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C19" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E19" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F19" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G19" s="9"/>
       <x:c r="H19" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="9"/>
       <x:c r="J19" s="8"/>
@@ -4280,18 +4333,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D20" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E20" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F20" s="9"/>
       <x:c r="G20" s="9"/>
       <x:c r="H20" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I20" s="9"/>
       <x:c r="J20" s="8"/>
@@ -4301,22 +4354,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D21" s="8" t="s">
-        <x:v>124</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E21" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F21" s="9"/>
       <x:c r="G21" s="9"/>
       <x:c r="H21" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I21" s="9"/>
       <x:c r="J21" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22" ht="20" customHeight="1"/>
@@ -4450,7 +4503,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="B2:R12"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4471,78 +4524,78 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="20" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C2" s="21"/>
-      <x:c r="D2" s="24" t="s">
+      <x:c r="B2" s="21" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C2" s="22"/>
+      <x:c r="D2" s="25" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E2" s="25"/>
+      <x:c r="F2" s="25"/>
+      <x:c r="G2" s="25"/>
+      <x:c r="H2" s="25"/>
+      <x:c r="I2" s="25"/>
+      <x:c r="J2" s="26"/>
+    </x:row>
+    <x:row r="3" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B3" s="23"/>
+      <x:c r="C3" s="24"/>
+      <x:c r="D3" s="27"/>
+      <x:c r="E3" s="27"/>
+      <x:c r="F3" s="27"/>
+      <x:c r="G3" s="27"/>
+      <x:c r="H3" s="27"/>
+      <x:c r="I3" s="27"/>
+      <x:c r="J3" s="28"/>
+    </x:row>
+    <x:row r="4" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B4" s="21" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C4" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D4" s="20"/>
+      <x:c r="E4" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G4" s="20"/>
+      <x:c r="H4" s="29" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="I4" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J4" s="22" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="23"/>
+      <x:c r="C5" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D5" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E5" s="11" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F5" s="11" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G5" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H5" s="30"/>
+      <x:c r="I5" s="11" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="E2" s="24"/>
-      <x:c r="F2" s="24"/>
-      <x:c r="G2" s="24"/>
-      <x:c r="H2" s="24"/>
-      <x:c r="I2" s="24"/>
-      <x:c r="J2" s="25"/>
-    </x:row>
-    <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="22"/>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="26"/>
-      <x:c r="E3" s="26"/>
-      <x:c r="F3" s="26"/>
-      <x:c r="G3" s="26"/>
-      <x:c r="H3" s="26"/>
-      <x:c r="I3" s="26"/>
-      <x:c r="J3" s="27"/>
-    </x:row>
-    <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C4" s="18" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D4" s="19"/>
-      <x:c r="E4" s="10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F4" s="18" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G4" s="19"/>
-      <x:c r="H4" s="28" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I4" s="10" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="22"/>
-      <x:c r="C5" s="11" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D5" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E5" s="11" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F5" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G5" s="11" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="29"/>
-      <x:c r="I5" s="11" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J5" s="23"/>
+      <x:c r="J5" s="24"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="7">
